--- a/models/regression_model_2m/pycaret_tables.xlsx
+++ b/models/regression_model_2m/pycaret_tables.xlsx
@@ -586,7 +586,7 @@
         <v>0.0951</v>
       </c>
       <c r="I2">
-        <v>0.068</v>
+        <v>0.066</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -615,7 +615,7 @@
         <v>0.102</v>
       </c>
       <c r="I3">
-        <v>0.048</v>
+        <v>0.058</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -644,7 +644,7 @@
         <v>0.1045</v>
       </c>
       <c r="I4">
-        <v>0.08799999999999999</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -673,7 +673,7 @@
         <v>0.1041</v>
       </c>
       <c r="I5">
-        <v>0.03</v>
+        <v>0.038</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -702,7 +702,7 @@
         <v>0.1236</v>
       </c>
       <c r="I6">
-        <v>0.044</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -731,7 +731,7 @@
         <v>0.1186</v>
       </c>
       <c r="I7">
-        <v>0.022</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -760,7 +760,7 @@
         <v>0.1366</v>
       </c>
       <c r="I8">
-        <v>0.02</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -789,7 +789,7 @@
         <v>0.1357</v>
       </c>
       <c r="I9">
-        <v>0.02</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -818,7 +818,7 @@
         <v>0.1436</v>
       </c>
       <c r="I10">
-        <v>1.042</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -847,7 +847,7 @@
         <v>0.138</v>
       </c>
       <c r="I11">
-        <v>0.514</v>
+        <v>0.508</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -876,7 +876,7 @@
         <v>0.1369</v>
       </c>
       <c r="I12">
-        <v>0.018</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -934,7 +934,7 @@
         <v>0.157</v>
       </c>
       <c r="I14">
-        <v>0.024</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -992,7 +992,7 @@
         <v>0.2055</v>
       </c>
       <c r="I16">
-        <v>0.016</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1021,7 +1021,7 @@
         <v>0.2844</v>
       </c>
       <c r="I17">
-        <v>0.022</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1050,7 +1050,7 @@
         <v>0.4876</v>
       </c>
       <c r="I18">
-        <v>0.018</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1079,7 +1079,7 @@
         <v>22.0928</v>
       </c>
       <c r="I19">
-        <v>0.028</v>
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
@@ -1188,22 +1188,22 @@
         <v>48</v>
       </c>
       <c r="C2">
-        <v>2.5744</v>
+        <v>1.2839</v>
       </c>
       <c r="D2">
-        <v>11.4771</v>
+        <v>4.018</v>
       </c>
       <c r="E2">
-        <v>3.3878</v>
+        <v>2.0045</v>
       </c>
       <c r="F2">
-        <v>0.9778</v>
+        <v>0.994</v>
       </c>
       <c r="G2">
-        <v>0.0569</v>
+        <v>0.0337</v>
       </c>
       <c r="H2">
-        <v>0.0458</v>
+        <v>0.0211</v>
       </c>
     </row>
   </sheetData>

--- a/models/regression_model_2m/pycaret_tables.xlsx
+++ b/models/regression_model_2m/pycaret_tables.xlsx
@@ -59,51 +59,51 @@
     <t>rf</t>
   </si>
   <si>
+    <t>ridge</t>
+  </si>
+  <si>
     <t>lightgbm</t>
   </si>
   <si>
+    <t>lr</t>
+  </si>
+  <si>
     <t>ada</t>
   </si>
   <si>
+    <t>br</t>
+  </si>
+  <si>
     <t>knn</t>
   </si>
   <si>
-    <t>ridge</t>
-  </si>
-  <si>
-    <t>br</t>
-  </si>
-  <si>
-    <t>lr</t>
+    <t>huber</t>
   </si>
   <si>
     <t>lasso</t>
   </si>
   <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>omp</t>
+  </si>
+  <si>
     <t>dt</t>
   </si>
   <si>
-    <t>en</t>
-  </si>
-  <si>
-    <t>huber</t>
-  </si>
-  <si>
-    <t>omp</t>
-  </si>
-  <si>
     <t>par</t>
   </si>
   <si>
     <t>llar</t>
   </si>
   <si>
+    <t>lar</t>
+  </si>
+  <si>
     <t>dummy</t>
   </si>
   <si>
-    <t>lar</t>
-  </si>
-  <si>
     <t>Extra Trees Regressor</t>
   </si>
   <si>
@@ -113,49 +113,49 @@
     <t>Random Forest Regressor</t>
   </si>
   <si>
+    <t>Ridge Regression</t>
+  </si>
+  <si>
     <t>Light Gradient Boosting Machine</t>
   </si>
   <si>
+    <t>Linear Regression</t>
+  </si>
+  <si>
     <t>AdaBoost Regressor</t>
   </si>
   <si>
+    <t>Bayesian Ridge</t>
+  </si>
+  <si>
     <t>K Neighbors Regressor</t>
   </si>
   <si>
-    <t>Ridge Regression</t>
-  </si>
-  <si>
-    <t>Bayesian Ridge</t>
-  </si>
-  <si>
-    <t>Linear Regression</t>
+    <t>Huber Regressor</t>
   </si>
   <si>
     <t>Lasso Regression</t>
   </si>
   <si>
+    <t>Elastic Net</t>
+  </si>
+  <si>
+    <t>Orthogonal Matching Pursuit</t>
+  </si>
+  <si>
     <t>Decision Tree Regressor</t>
   </si>
   <si>
-    <t>Elastic Net</t>
-  </si>
-  <si>
-    <t>Huber Regressor</t>
-  </si>
-  <si>
-    <t>Orthogonal Matching Pursuit</t>
-  </si>
-  <si>
     <t>Passive Aggressive Regressor</t>
   </si>
   <si>
     <t>Lasso Least Angle Regression</t>
   </si>
   <si>
+    <t>Least Angle Regression</t>
+  </si>
+  <si>
     <t>Dummy Regressor</t>
-  </si>
-  <si>
-    <t>Least Angle Regression</t>
   </si>
   <si>
     <t>Fold</t>
@@ -568,25 +568,25 @@
         <v>26</v>
       </c>
       <c r="C2">
-        <v>5.1497</v>
+        <v>5.3473</v>
       </c>
       <c r="D2">
-        <v>56.1571</v>
+        <v>59.9795</v>
       </c>
       <c r="E2">
-        <v>7.274</v>
+        <v>7.672</v>
       </c>
       <c r="F2">
-        <v>0.9157999999999999</v>
+        <v>0.9191</v>
       </c>
       <c r="G2">
-        <v>0.1252</v>
+        <v>0.1365</v>
       </c>
       <c r="H2">
-        <v>0.0951</v>
+        <v>0.1026</v>
       </c>
       <c r="I2">
-        <v>0.066</v>
+        <v>0.076</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -597,25 +597,25 @@
         <v>27</v>
       </c>
       <c r="C3">
-        <v>5.639</v>
+        <v>6.3353</v>
       </c>
       <c r="D3">
-        <v>60.4366</v>
+        <v>81.63509999999999</v>
       </c>
       <c r="E3">
-        <v>7.6343</v>
+        <v>8.9533</v>
       </c>
       <c r="F3">
-        <v>0.9099</v>
+        <v>0.8908</v>
       </c>
       <c r="G3">
-        <v>0.1301</v>
+        <v>0.1476</v>
       </c>
       <c r="H3">
-        <v>0.102</v>
+        <v>0.1134</v>
       </c>
       <c r="I3">
-        <v>0.058</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -626,25 +626,25 @@
         <v>28</v>
       </c>
       <c r="C4">
-        <v>5.6866</v>
+        <v>6.3026</v>
       </c>
       <c r="D4">
-        <v>65.7666</v>
+        <v>82.40779999999999</v>
       </c>
       <c r="E4">
-        <v>8.002700000000001</v>
+        <v>9.026999999999999</v>
       </c>
       <c r="F4">
-        <v>0.9038</v>
+        <v>0.8888</v>
       </c>
       <c r="G4">
-        <v>0.1376</v>
+        <v>0.1485</v>
       </c>
       <c r="H4">
-        <v>0.1045</v>
+        <v>0.1139</v>
       </c>
       <c r="I4">
-        <v>0.08</v>
+        <v>0.08599999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -655,25 +655,25 @@
         <v>29</v>
       </c>
       <c r="C5">
-        <v>5.9359</v>
+        <v>7.2375</v>
       </c>
       <c r="D5">
-        <v>67.0617</v>
+        <v>86.3532</v>
       </c>
       <c r="E5">
-        <v>8.103400000000001</v>
+        <v>9.2369</v>
       </c>
       <c r="F5">
-        <v>0.9034</v>
+        <v>0.8827</v>
       </c>
       <c r="G5">
-        <v>0.1334</v>
+        <v>0.1712</v>
       </c>
       <c r="H5">
-        <v>0.1041</v>
+        <v>0.1381</v>
       </c>
       <c r="I5">
-        <v>0.038</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -684,25 +684,25 @@
         <v>30</v>
       </c>
       <c r="C6">
-        <v>6.3649</v>
+        <v>6.6708</v>
       </c>
       <c r="D6">
-        <v>72.0333</v>
+        <v>86.504</v>
       </c>
       <c r="E6">
-        <v>8.354799999999999</v>
+        <v>9.286799999999999</v>
       </c>
       <c r="F6">
-        <v>0.8944</v>
+        <v>0.883</v>
       </c>
       <c r="G6">
-        <v>0.1516</v>
+        <v>0.1578</v>
       </c>
       <c r="H6">
-        <v>0.1236</v>
+        <v>0.123</v>
       </c>
       <c r="I6">
-        <v>0.04</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -713,25 +713,25 @@
         <v>31</v>
       </c>
       <c r="C7">
-        <v>6.2477</v>
+        <v>7.4156</v>
       </c>
       <c r="D7">
-        <v>89.27970000000001</v>
+        <v>88.22190000000001</v>
       </c>
       <c r="E7">
-        <v>9.1656</v>
+        <v>9.316800000000001</v>
       </c>
       <c r="F7">
-        <v>0.8729</v>
+        <v>0.8799</v>
       </c>
       <c r="G7">
-        <v>0.1568</v>
+        <v>0.1814</v>
       </c>
       <c r="H7">
-        <v>0.1186</v>
+        <v>0.1448</v>
       </c>
       <c r="I7">
-        <v>0.02</v>
+        <v>1.256</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -742,25 +742,25 @@
         <v>32</v>
       </c>
       <c r="C8">
-        <v>7.1018</v>
+        <v>7.0202</v>
       </c>
       <c r="D8">
-        <v>86.4071</v>
+        <v>90.20359999999999</v>
       </c>
       <c r="E8">
-        <v>9.2227</v>
+        <v>9.3918</v>
       </c>
       <c r="F8">
-        <v>0.8789</v>
+        <v>0.8782</v>
       </c>
       <c r="G8">
-        <v>0.1865</v>
+        <v>0.1664</v>
       </c>
       <c r="H8">
-        <v>0.1366</v>
+        <v>0.1361</v>
       </c>
       <c r="I8">
-        <v>0.018</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -771,22 +771,22 @@
         <v>33</v>
       </c>
       <c r="C9">
-        <v>7.1226</v>
+        <v>7.4111</v>
       </c>
       <c r="D9">
-        <v>88.8026</v>
+        <v>90.4932</v>
       </c>
       <c r="E9">
-        <v>9.3415</v>
+        <v>9.470499999999999</v>
       </c>
       <c r="F9">
-        <v>0.8762</v>
+        <v>0.8774</v>
       </c>
       <c r="G9">
-        <v>0.1755</v>
+        <v>0.1732</v>
       </c>
       <c r="H9">
-        <v>0.1357</v>
+        <v>0.1403</v>
       </c>
       <c r="I9">
         <v>0.018</v>
@@ -800,25 +800,25 @@
         <v>34</v>
       </c>
       <c r="C10">
-        <v>7.3527</v>
+        <v>6.5495</v>
       </c>
       <c r="D10">
-        <v>92.90949999999999</v>
+        <v>95.5809</v>
       </c>
       <c r="E10">
-        <v>9.5839</v>
+        <v>9.6897</v>
       </c>
       <c r="F10">
-        <v>0.868</v>
+        <v>0.8718</v>
       </c>
       <c r="G10">
-        <v>0.2222</v>
+        <v>0.1624</v>
       </c>
       <c r="H10">
-        <v>0.1436</v>
+        <v>0.1224</v>
       </c>
       <c r="I10">
-        <v>0.992</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -829,25 +829,25 @@
         <v>35</v>
       </c>
       <c r="C11">
-        <v>7.2633</v>
+        <v>7.7872</v>
       </c>
       <c r="D11">
-        <v>103.3692</v>
+        <v>97.6611</v>
       </c>
       <c r="E11">
-        <v>9.9892</v>
+        <v>9.795</v>
       </c>
       <c r="F11">
-        <v>0.8552999999999999</v>
+        <v>0.8667</v>
       </c>
       <c r="G11">
-        <v>0.1761</v>
+        <v>0.193</v>
       </c>
       <c r="H11">
-        <v>0.138</v>
+        <v>0.1531</v>
       </c>
       <c r="I11">
-        <v>0.508</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -858,25 +858,25 @@
         <v>36</v>
       </c>
       <c r="C12">
-        <v>7.5173</v>
+        <v>7.7385</v>
       </c>
       <c r="D12">
-        <v>108.8586</v>
+        <v>107.1094</v>
       </c>
       <c r="E12">
-        <v>10.1857</v>
+        <v>10.296</v>
       </c>
       <c r="F12">
-        <v>0.8381999999999999</v>
+        <v>0.8554</v>
       </c>
       <c r="G12">
-        <v>0.1782</v>
+        <v>0.1866</v>
       </c>
       <c r="H12">
-        <v>0.1369</v>
+        <v>0.1471</v>
       </c>
       <c r="I12">
-        <v>0.016</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -887,25 +887,25 @@
         <v>37</v>
       </c>
       <c r="C13">
-        <v>7.6359</v>
+        <v>8.1068</v>
       </c>
       <c r="D13">
-        <v>111.5235</v>
+        <v>115.9043</v>
       </c>
       <c r="E13">
-        <v>10.3983</v>
+        <v>10.7155</v>
       </c>
       <c r="F13">
-        <v>0.8452</v>
+        <v>0.8436</v>
       </c>
       <c r="G13">
-        <v>0.1785</v>
+        <v>0.1872</v>
       </c>
       <c r="H13">
-        <v>0.1424</v>
+        <v>0.1524</v>
       </c>
       <c r="I13">
-        <v>0.02</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -916,25 +916,25 @@
         <v>38</v>
       </c>
       <c r="C14">
-        <v>7.9201</v>
+        <v>8.076599999999999</v>
       </c>
       <c r="D14">
-        <v>118.5785</v>
+        <v>134.0358</v>
       </c>
       <c r="E14">
-        <v>10.7444</v>
+        <v>11.4976</v>
       </c>
       <c r="F14">
-        <v>0.835</v>
+        <v>0.8179</v>
       </c>
       <c r="G14">
-        <v>0.2075</v>
+        <v>0.1916</v>
       </c>
       <c r="H14">
-        <v>0.157</v>
+        <v>0.1508</v>
       </c>
       <c r="I14">
-        <v>0.026</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -945,25 +945,25 @@
         <v>39</v>
       </c>
       <c r="C15">
-        <v>8.1502</v>
+        <v>8.599600000000001</v>
       </c>
       <c r="D15">
-        <v>139.7014</v>
+        <v>161.026</v>
       </c>
       <c r="E15">
-        <v>11.6353</v>
+        <v>12.5111</v>
       </c>
       <c r="F15">
-        <v>0.8016</v>
+        <v>0.783</v>
       </c>
       <c r="G15">
-        <v>0.2066</v>
+        <v>0.2069</v>
       </c>
       <c r="H15">
-        <v>0.1567</v>
+        <v>0.1566</v>
       </c>
       <c r="I15">
-        <v>0.018</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -974,22 +974,22 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <v>9.981199999999999</v>
+        <v>10.2316</v>
       </c>
       <c r="D16">
-        <v>151.7688</v>
+        <v>179.6481</v>
       </c>
       <c r="E16">
-        <v>12.2788</v>
+        <v>13.1691</v>
       </c>
       <c r="F16">
-        <v>0.7814</v>
+        <v>0.7618</v>
       </c>
       <c r="G16">
-        <v>0.3172</v>
+        <v>0.2398</v>
       </c>
       <c r="H16">
-        <v>0.2055</v>
+        <v>0.1939</v>
       </c>
       <c r="I16">
         <v>0.018</v>
@@ -1003,25 +1003,25 @@
         <v>41</v>
       </c>
       <c r="C17">
-        <v>13.7592</v>
+        <v>13.9291</v>
       </c>
       <c r="D17">
-        <v>287.8243</v>
+        <v>293.151</v>
       </c>
       <c r="E17">
-        <v>16.7317</v>
+        <v>17.0799</v>
       </c>
       <c r="F17">
-        <v>0.6114000000000001</v>
+        <v>0.6072</v>
       </c>
       <c r="G17">
-        <v>0.3023</v>
+        <v>0.3047</v>
       </c>
       <c r="H17">
-        <v>0.2844</v>
+        <v>0.2892</v>
       </c>
       <c r="I17">
-        <v>0.026</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1032,25 +1032,25 @@
         <v>42</v>
       </c>
       <c r="C18">
-        <v>22.8098</v>
+        <v>21.9477</v>
       </c>
       <c r="D18">
-        <v>740.0682</v>
+        <v>1065.3555</v>
       </c>
       <c r="E18">
-        <v>27.0177</v>
+        <v>27.3593</v>
       </c>
       <c r="F18">
-        <v>-0.0153</v>
+        <v>-0.7437</v>
       </c>
       <c r="G18">
-        <v>0.4753</v>
+        <v>0.4931</v>
       </c>
       <c r="H18">
-        <v>0.4876</v>
+        <v>0.4504</v>
       </c>
       <c r="I18">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1061,25 +1061,25 @@
         <v>43</v>
       </c>
       <c r="C19">
-        <v>1193.6622</v>
+        <v>23.1892</v>
       </c>
       <c r="D19">
-        <v>12035462.4176</v>
+        <v>750.8919</v>
       </c>
       <c r="E19">
-        <v>1580.4582</v>
+        <v>27.3639</v>
       </c>
       <c r="F19">
-        <v>-12425.2007</v>
+        <v>-0.0047</v>
       </c>
       <c r="G19">
-        <v>1.2385</v>
+        <v>0.4806</v>
       </c>
       <c r="H19">
-        <v>22.0928</v>
+        <v>0.4979</v>
       </c>
       <c r="I19">
-        <v>0.02</v>
+        <v>0.018</v>
       </c>
     </row>
   </sheetData>
@@ -1126,22 +1126,22 @@
         <v>48</v>
       </c>
       <c r="C2">
-        <v>4.5011</v>
+        <v>4.1441</v>
       </c>
       <c r="D2">
-        <v>35.8655</v>
+        <v>31.1755</v>
       </c>
       <c r="E2">
-        <v>5.9888</v>
+        <v>5.5835</v>
       </c>
       <c r="F2">
-        <v>0.9306</v>
+        <v>0.9374</v>
       </c>
       <c r="G2">
-        <v>0.09320000000000001</v>
+        <v>0.09030000000000001</v>
       </c>
       <c r="H2">
-        <v>0.0743</v>
+        <v>0.06850000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1185,25 +1185,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2">
-        <v>1.2839</v>
+        <v>1.4974</v>
       </c>
       <c r="D2">
-        <v>4.018</v>
+        <v>4.0136</v>
       </c>
       <c r="E2">
-        <v>2.0045</v>
+        <v>2.0034</v>
       </c>
       <c r="F2">
-        <v>0.994</v>
+        <v>0.9941</v>
       </c>
       <c r="G2">
-        <v>0.0337</v>
+        <v>0.0385</v>
       </c>
       <c r="H2">
-        <v>0.0211</v>
+        <v>0.0273</v>
       </c>
     </row>
   </sheetData>
@@ -1247,22 +1247,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.0021</v>
+        <v>4.5824</v>
       </c>
       <c r="C2">
-        <v>53.5409</v>
+        <v>53.5247</v>
       </c>
       <c r="D2">
-        <v>7.3172</v>
+        <v>7.3161</v>
       </c>
       <c r="E2">
-        <v>0.9046999999999999</v>
+        <v>0.9271</v>
       </c>
       <c r="F2">
-        <v>0.1238</v>
+        <v>0.09959999999999999</v>
       </c>
       <c r="G2">
-        <v>0.09279999999999999</v>
+        <v>0.0721</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1270,22 +1270,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.376</v>
+        <v>4.9402</v>
       </c>
       <c r="C3">
-        <v>50.2433</v>
+        <v>63.9136</v>
       </c>
       <c r="D3">
-        <v>7.0882</v>
+        <v>7.9946</v>
       </c>
       <c r="E3">
-        <v>0.9433</v>
+        <v>0.9213</v>
       </c>
       <c r="F3">
-        <v>0.1139</v>
+        <v>0.132</v>
       </c>
       <c r="G3">
-        <v>0.0961</v>
+        <v>0.09089999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1293,22 +1293,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.8864</v>
+        <v>5.5151</v>
       </c>
       <c r="C4">
-        <v>43.5237</v>
+        <v>52.0426</v>
       </c>
       <c r="D4">
-        <v>6.5972</v>
+        <v>7.2141</v>
       </c>
       <c r="E4">
-        <v>0.924</v>
+        <v>0.9167999999999999</v>
       </c>
       <c r="F4">
-        <v>0.1152</v>
+        <v>0.117</v>
       </c>
       <c r="G4">
-        <v>0.08799999999999999</v>
+        <v>0.09520000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1316,22 +1316,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.7918</v>
+        <v>6.1661</v>
       </c>
       <c r="C5">
-        <v>41</v>
+        <v>67.7056</v>
       </c>
       <c r="D5">
-        <v>6.4031</v>
+        <v>8.228300000000001</v>
       </c>
       <c r="E5">
-        <v>0.9577</v>
+        <v>0.9204</v>
       </c>
       <c r="F5">
-        <v>0.1079</v>
+        <v>0.14</v>
       </c>
       <c r="G5">
-        <v>0.08309999999999999</v>
+        <v>0.1146</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1339,22 +1339,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.1244</v>
+        <v>7.0187</v>
       </c>
       <c r="C6">
-        <v>123.9757</v>
+        <v>99.0106</v>
       </c>
       <c r="D6">
-        <v>11.1344</v>
+        <v>9.9504</v>
       </c>
       <c r="E6">
-        <v>0.8093</v>
+        <v>0.8616</v>
       </c>
       <c r="F6">
-        <v>0.2056</v>
+        <v>0.2276</v>
       </c>
       <c r="G6">
-        <v>0.1484</v>
+        <v>0.1676</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1362,22 +1362,22 @@
         <v>45</v>
       </c>
       <c r="B7">
-        <v>5.4361</v>
+        <v>5.6445</v>
       </c>
       <c r="C7">
-        <v>62.4567</v>
+        <v>67.2394</v>
       </c>
       <c r="D7">
-        <v>7.708</v>
+        <v>8.140700000000001</v>
       </c>
       <c r="E7">
-        <v>0.9078000000000001</v>
+        <v>0.9094</v>
       </c>
       <c r="F7">
-        <v>0.1333</v>
+        <v>0.1433</v>
       </c>
       <c r="G7">
-        <v>0.1017</v>
+        <v>0.1081</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1385,22 +1385,22 @@
         <v>46</v>
       </c>
       <c r="B8">
-        <v>0.8671</v>
+        <v>0.8719</v>
       </c>
       <c r="C8">
-        <v>31.0873</v>
+        <v>16.9689</v>
       </c>
       <c r="D8">
-        <v>1.7443</v>
+        <v>0.9842</v>
       </c>
       <c r="E8">
-        <v>0.0524</v>
+        <v>0.0241</v>
       </c>
       <c r="F8">
-        <v>0.0365</v>
+        <v>0.0444</v>
       </c>
       <c r="G8">
-        <v>0.0238</v>
+        <v>0.0327</v>
       </c>
     </row>
   </sheetData>
@@ -1444,22 +1444,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.9395</v>
+        <v>5.1192</v>
       </c>
       <c r="C2">
-        <v>48.9799</v>
+        <v>45.8964</v>
       </c>
       <c r="D2">
-        <v>6.9986</v>
+        <v>6.7747</v>
       </c>
       <c r="E2">
-        <v>0.9127999999999999</v>
+        <v>0.9375</v>
       </c>
       <c r="F2">
-        <v>0.1109</v>
+        <v>0.0949</v>
       </c>
       <c r="G2">
-        <v>0.0834</v>
+        <v>0.079</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1467,22 +1467,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.1838</v>
+        <v>4.023</v>
       </c>
       <c r="C3">
-        <v>47.3274</v>
+        <v>36.6777</v>
       </c>
       <c r="D3">
-        <v>6.8795</v>
+        <v>6.0562</v>
       </c>
       <c r="E3">
-        <v>0.9466</v>
+        <v>0.9548</v>
       </c>
       <c r="F3">
-        <v>0.1224</v>
+        <v>0.0999</v>
       </c>
       <c r="G3">
-        <v>0.09429999999999999</v>
+        <v>0.0718</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1490,22 +1490,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.5056</v>
+        <v>5.5806</v>
       </c>
       <c r="C4">
-        <v>37.1638</v>
+        <v>53.993</v>
       </c>
       <c r="D4">
-        <v>6.0962</v>
+        <v>7.348</v>
       </c>
       <c r="E4">
-        <v>0.9351</v>
+        <v>0.9136</v>
       </c>
       <c r="F4">
-        <v>0.1026</v>
+        <v>0.1139</v>
       </c>
       <c r="G4">
-        <v>0.07829999999999999</v>
+        <v>0.093</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1513,22 +1513,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.1055</v>
+        <v>5.6551</v>
       </c>
       <c r="C5">
-        <v>37.6392</v>
+        <v>60.3441</v>
       </c>
       <c r="D5">
-        <v>6.1351</v>
+        <v>7.7681</v>
       </c>
       <c r="E5">
-        <v>0.9611</v>
+        <v>0.929</v>
       </c>
       <c r="F5">
-        <v>0.1029</v>
+        <v>0.1278</v>
       </c>
       <c r="G5">
-        <v>0.0717</v>
+        <v>0.101</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1536,22 +1536,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.03</v>
+        <v>7.2627</v>
       </c>
       <c r="C6">
-        <v>86.8972</v>
+        <v>95.93680000000001</v>
       </c>
       <c r="D6">
-        <v>9.321899999999999</v>
+        <v>9.794700000000001</v>
       </c>
       <c r="E6">
-        <v>0.8663</v>
+        <v>0.8659</v>
       </c>
       <c r="F6">
-        <v>0.1694</v>
+        <v>0.2087</v>
       </c>
       <c r="G6">
-        <v>0.1315</v>
+        <v>0.1581</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1559,22 +1559,22 @@
         <v>45</v>
       </c>
       <c r="B7">
-        <v>5.1529</v>
+        <v>5.5281</v>
       </c>
       <c r="C7">
-        <v>51.6015</v>
+        <v>58.5696</v>
       </c>
       <c r="D7">
-        <v>7.0862</v>
+        <v>7.5484</v>
       </c>
       <c r="E7">
-        <v>0.9244</v>
+        <v>0.9202</v>
       </c>
       <c r="F7">
-        <v>0.1217</v>
+        <v>0.1291</v>
       </c>
       <c r="G7">
-        <v>0.09180000000000001</v>
+        <v>0.1006</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1582,22 +1582,22 @@
         <v>46</v>
       </c>
       <c r="B8">
-        <v>1.0086</v>
+        <v>1.045</v>
       </c>
       <c r="C8">
-        <v>18.2993</v>
+        <v>20.2991</v>
       </c>
       <c r="D8">
-        <v>1.1776</v>
+        <v>1.2617</v>
       </c>
       <c r="E8">
-        <v>0.0331</v>
+        <v>0.0302</v>
       </c>
       <c r="F8">
-        <v>0.025</v>
+        <v>0.0415</v>
       </c>
       <c r="G8">
-        <v>0.0211</v>
+        <v>0.0305</v>
       </c>
     </row>
   </sheetData>
@@ -1641,22 +1641,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.2389</v>
+        <v>4.6757</v>
       </c>
       <c r="C2">
-        <v>59.287</v>
+        <v>51.9334</v>
       </c>
       <c r="D2">
-        <v>7.6998</v>
+        <v>7.2065</v>
       </c>
       <c r="E2">
-        <v>0.8945</v>
+        <v>0.9293</v>
       </c>
       <c r="F2">
-        <v>0.1303</v>
+        <v>0.0982</v>
       </c>
       <c r="G2">
-        <v>0.097</v>
+        <v>0.0721</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1664,22 +1664,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.4352</v>
+        <v>5.2223</v>
       </c>
       <c r="C3">
-        <v>58.0653</v>
+        <v>64.9123</v>
       </c>
       <c r="D3">
-        <v>7.6201</v>
+        <v>8.056800000000001</v>
       </c>
       <c r="E3">
-        <v>0.9345</v>
+        <v>0.92</v>
       </c>
       <c r="F3">
-        <v>0.1138</v>
+        <v>0.1281</v>
       </c>
       <c r="G3">
-        <v>0.09</v>
+        <v>0.0922</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1687,22 +1687,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.8481</v>
+        <v>5.6262</v>
       </c>
       <c r="C4">
-        <v>42.3852</v>
+        <v>59.5939</v>
       </c>
       <c r="D4">
-        <v>6.5104</v>
+        <v>7.7197</v>
       </c>
       <c r="E4">
-        <v>0.926</v>
+        <v>0.9046999999999999</v>
       </c>
       <c r="F4">
-        <v>0.1206</v>
+        <v>0.1234</v>
       </c>
       <c r="G4">
-        <v>0.0912</v>
+        <v>0.0964</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1710,22 +1710,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.1196</v>
+        <v>6.3615</v>
       </c>
       <c r="C5">
-        <v>46.9172</v>
+        <v>79.0622</v>
       </c>
       <c r="D5">
-        <v>6.8496</v>
+        <v>8.8917</v>
       </c>
       <c r="E5">
-        <v>0.9516</v>
+        <v>0.907</v>
       </c>
       <c r="F5">
-        <v>0.1118</v>
+        <v>0.1461</v>
       </c>
       <c r="G5">
-        <v>0.0867</v>
+        <v>0.1156</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1733,22 +1733,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.0652</v>
+        <v>7.1906</v>
       </c>
       <c r="C6">
-        <v>110.8637</v>
+        <v>100.9938</v>
       </c>
       <c r="D6">
-        <v>10.5292</v>
+        <v>10.0496</v>
       </c>
       <c r="E6">
-        <v>0.8294</v>
+        <v>0.8589</v>
       </c>
       <c r="F6">
-        <v>0.2063</v>
+        <v>0.2233</v>
       </c>
       <c r="G6">
-        <v>0.1481</v>
+        <v>0.1666</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1756,22 +1756,22 @@
         <v>45</v>
       </c>
       <c r="B7">
-        <v>5.5414</v>
+        <v>5.8153</v>
       </c>
       <c r="C7">
-        <v>63.5037</v>
+        <v>71.2991</v>
       </c>
       <c r="D7">
-        <v>7.8418</v>
+        <v>8.3849</v>
       </c>
       <c r="E7">
-        <v>0.9072</v>
+        <v>0.904</v>
       </c>
       <c r="F7">
-        <v>0.1365</v>
+        <v>0.1438</v>
       </c>
       <c r="G7">
-        <v>0.1026</v>
+        <v>0.1086</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1779,22 +1779,22 @@
         <v>46</v>
       </c>
       <c r="B8">
-        <v>0.7853</v>
+        <v>0.8804</v>
       </c>
       <c r="C8">
-        <v>24.5415</v>
+        <v>17.2909</v>
       </c>
       <c r="D8">
-        <v>1.4176</v>
+        <v>0.9967</v>
       </c>
       <c r="E8">
-        <v>0.0431</v>
+        <v>0.0243</v>
       </c>
       <c r="F8">
-        <v>0.0355</v>
+        <v>0.0426</v>
       </c>
       <c r="G8">
-        <v>0.023</v>
+        <v>0.0321</v>
       </c>
     </row>
   </sheetData>
@@ -1838,22 +1838,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.3181</v>
+        <v>7.1041</v>
       </c>
       <c r="C2">
-        <v>53.4369</v>
+        <v>74.1725</v>
       </c>
       <c r="D2">
-        <v>7.3101</v>
+        <v>8.612299999999999</v>
       </c>
       <c r="E2">
-        <v>0.9049</v>
+        <v>0.899</v>
       </c>
       <c r="F2">
-        <v>0.1248</v>
+        <v>0.147</v>
       </c>
       <c r="G2">
-        <v>0.09669999999999999</v>
+        <v>0.1258</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1861,22 +1861,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.122</v>
+        <v>5.7651</v>
       </c>
       <c r="C3">
-        <v>44.8717</v>
+        <v>61.5515</v>
       </c>
       <c r="D3">
-        <v>6.6986</v>
+        <v>7.8455</v>
       </c>
       <c r="E3">
-        <v>0.9494</v>
+        <v>0.9242</v>
       </c>
       <c r="F3">
-        <v>0.1129</v>
+        <v>0.1673</v>
       </c>
       <c r="G3">
-        <v>0.092</v>
+        <v>0.1216</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1884,22 +1884,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.8969</v>
+        <v>6.9176</v>
       </c>
       <c r="C4">
-        <v>59.9133</v>
+        <v>79.0017</v>
       </c>
       <c r="D4">
-        <v>7.7404</v>
+        <v>8.888299999999999</v>
       </c>
       <c r="E4">
-        <v>0.8954</v>
+        <v>0.8736</v>
       </c>
       <c r="F4">
-        <v>0.1189</v>
+        <v>0.1473</v>
       </c>
       <c r="G4">
-        <v>0.0998</v>
+        <v>0.1195</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1907,22 +1907,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.503</v>
+        <v>7.3352</v>
       </c>
       <c r="C5">
-        <v>53.1358</v>
+        <v>86.1867</v>
       </c>
       <c r="D5">
-        <v>7.2894</v>
+        <v>9.2837</v>
       </c>
       <c r="E5">
-        <v>0.9451000000000001</v>
+        <v>0.8986</v>
       </c>
       <c r="F5">
-        <v>0.1234</v>
+        <v>0.1919</v>
       </c>
       <c r="G5">
-        <v>0.0958</v>
+        <v>0.1463</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1930,22 +1930,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.0257</v>
+        <v>8.8774</v>
       </c>
       <c r="C6">
-        <v>115.882</v>
+        <v>124.2084</v>
       </c>
       <c r="D6">
-        <v>10.7649</v>
+        <v>11.1449</v>
       </c>
       <c r="E6">
-        <v>0.8217</v>
+        <v>0.8264</v>
       </c>
       <c r="F6">
-        <v>0.1931</v>
+        <v>0.2142</v>
       </c>
       <c r="G6">
-        <v>0.1363</v>
+        <v>0.1796</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1953,22 +1953,22 @@
         <v>45</v>
       </c>
       <c r="B7">
-        <v>5.7731</v>
+        <v>7.1999</v>
       </c>
       <c r="C7">
-        <v>65.44799999999999</v>
+        <v>85.02419999999999</v>
       </c>
       <c r="D7">
-        <v>7.9607</v>
+        <v>9.1549</v>
       </c>
       <c r="E7">
-        <v>0.9033</v>
+        <v>0.8844</v>
       </c>
       <c r="F7">
-        <v>0.1346</v>
+        <v>0.1735</v>
       </c>
       <c r="G7">
-        <v>0.1041</v>
+        <v>0.1386</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1976,22 +1976,22 @@
         <v>46</v>
       </c>
       <c r="B8">
-        <v>0.6765</v>
+        <v>0.998</v>
       </c>
       <c r="C8">
-        <v>25.665</v>
+        <v>21.1743</v>
       </c>
       <c r="D8">
-        <v>1.4407</v>
+        <v>1.1006</v>
       </c>
       <c r="E8">
-        <v>0.046</v>
+        <v>0.0331</v>
       </c>
       <c r="F8">
-        <v>0.0296</v>
+        <v>0.0262</v>
       </c>
       <c r="G8">
-        <v>0.0163</v>
+        <v>0.0226</v>
       </c>
     </row>
   </sheetData>
@@ -2035,22 +2035,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.789</v>
+        <v>5.8796</v>
       </c>
       <c r="C2">
-        <v>49.5695</v>
+        <v>60.4954</v>
       </c>
       <c r="D2">
-        <v>7.0406</v>
+        <v>7.7779</v>
       </c>
       <c r="E2">
-        <v>0.9118000000000001</v>
+        <v>0.9176</v>
       </c>
       <c r="F2">
-        <v>0.1359</v>
+        <v>0.12</v>
       </c>
       <c r="G2">
-        <v>0.1188</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2058,22 +2058,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.4814</v>
+        <v>6.0753</v>
       </c>
       <c r="C3">
-        <v>50.01</v>
+        <v>72.37009999999999</v>
       </c>
       <c r="D3">
-        <v>7.0718</v>
+        <v>8.507099999999999</v>
       </c>
       <c r="E3">
-        <v>0.9436</v>
+        <v>0.9108000000000001</v>
       </c>
       <c r="F3">
-        <v>0.1148</v>
+        <v>0.1334</v>
       </c>
       <c r="G3">
-        <v>0.09959999999999999</v>
+        <v>0.1018</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2081,22 +2081,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.0508</v>
+        <v>5.5133</v>
       </c>
       <c r="C4">
-        <v>64.22669999999999</v>
+        <v>64.26439999999999</v>
       </c>
       <c r="D4">
-        <v>8.014200000000001</v>
+        <v>8.016500000000001</v>
       </c>
       <c r="E4">
-        <v>0.8878</v>
+        <v>0.8972</v>
       </c>
       <c r="F4">
-        <v>0.1477</v>
+        <v>0.1162</v>
       </c>
       <c r="G4">
-        <v>0.1181</v>
+        <v>0.0896</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2104,22 +2104,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.5176</v>
+        <v>5.8096</v>
       </c>
       <c r="C5">
-        <v>59.5424</v>
+        <v>70.1314</v>
       </c>
       <c r="D5">
-        <v>7.7164</v>
+        <v>8.3744</v>
       </c>
       <c r="E5">
-        <v>0.9385</v>
+        <v>0.9175</v>
       </c>
       <c r="F5">
-        <v>0.148</v>
+        <v>0.1413</v>
       </c>
       <c r="G5">
-        <v>0.1267</v>
+        <v>0.1059</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2127,22 +2127,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.2743</v>
+        <v>7.0676</v>
       </c>
       <c r="C6">
-        <v>119.1983</v>
+        <v>85.6944</v>
       </c>
       <c r="D6">
-        <v>10.9178</v>
+        <v>9.257099999999999</v>
       </c>
       <c r="E6">
-        <v>0.8166</v>
+        <v>0.8802</v>
       </c>
       <c r="F6">
-        <v>0.2001</v>
+        <v>0.2068</v>
       </c>
       <c r="G6">
-        <v>0.1479</v>
+        <v>0.1606</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2150,22 +2150,22 @@
         <v>45</v>
       </c>
       <c r="B7">
-        <v>6.2226</v>
+        <v>6.0691</v>
       </c>
       <c r="C7">
-        <v>68.5094</v>
+        <v>70.5911</v>
       </c>
       <c r="D7">
-        <v>8.152100000000001</v>
+        <v>8.3866</v>
       </c>
       <c r="E7">
-        <v>0.8997000000000001</v>
+        <v>0.9046999999999999</v>
       </c>
       <c r="F7">
-        <v>0.1493</v>
+        <v>0.1435</v>
       </c>
       <c r="G7">
-        <v>0.1222</v>
+        <v>0.1108</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2173,22 +2173,22 @@
         <v>46</v>
       </c>
       <c r="B8">
-        <v>0.6261</v>
+        <v>0.5309</v>
       </c>
       <c r="C8">
-        <v>25.9579</v>
+        <v>8.642200000000001</v>
       </c>
       <c r="D8">
-        <v>1.4325</v>
+        <v>0.506</v>
       </c>
       <c r="E8">
-        <v>0.0461</v>
+        <v>0.0143</v>
       </c>
       <c r="F8">
-        <v>0.0281</v>
+        <v>0.0329</v>
       </c>
       <c r="G8">
-        <v>0.0156</v>
+        <v>0.0255</v>
       </c>
     </row>
   </sheetData>
@@ -2232,22 +2232,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.0136</v>
+        <v>4.6959</v>
       </c>
       <c r="C2">
-        <v>46.3899</v>
+        <v>43.396</v>
       </c>
       <c r="D2">
-        <v>6.811</v>
+        <v>6.5876</v>
       </c>
       <c r="E2">
-        <v>0.9174</v>
+        <v>0.9409</v>
       </c>
       <c r="F2">
-        <v>0.1171</v>
+        <v>0.09180000000000001</v>
       </c>
       <c r="G2">
-        <v>0.0921</v>
+        <v>0.07340000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2255,22 +2255,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.8902</v>
+        <v>4.7842</v>
       </c>
       <c r="C3">
-        <v>43.9626</v>
+        <v>50.0878</v>
       </c>
       <c r="D3">
-        <v>6.6304</v>
+        <v>7.0773</v>
       </c>
       <c r="E3">
-        <v>0.9504</v>
+        <v>0.9383</v>
       </c>
       <c r="F3">
-        <v>0.1064</v>
+        <v>0.119</v>
       </c>
       <c r="G3">
-        <v>0.0854</v>
+        <v>0.08740000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2278,22 +2278,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.9419</v>
+        <v>5.2297</v>
       </c>
       <c r="C4">
-        <v>42.5902</v>
+        <v>53.0925</v>
       </c>
       <c r="D4">
-        <v>6.5261</v>
+        <v>7.2865</v>
       </c>
       <c r="E4">
-        <v>0.9256</v>
+        <v>0.9151</v>
       </c>
       <c r="F4">
-        <v>0.1122</v>
+        <v>0.1093</v>
       </c>
       <c r="G4">
-        <v>0.0892</v>
+        <v>0.0854</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2301,22 +2301,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.7228</v>
+        <v>5.7064</v>
       </c>
       <c r="C5">
-        <v>39.8119</v>
+        <v>62.2778</v>
       </c>
       <c r="D5">
-        <v>6.3097</v>
+        <v>7.8916</v>
       </c>
       <c r="E5">
-        <v>0.9589</v>
+        <v>0.9267</v>
       </c>
       <c r="F5">
-        <v>0.1112</v>
+        <v>0.1316</v>
       </c>
       <c r="G5">
-        <v>0.08450000000000001</v>
+        <v>0.103</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2324,22 +2324,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.5975</v>
+        <v>7.1597</v>
       </c>
       <c r="C6">
-        <v>101.6966</v>
+        <v>90.95959999999999</v>
       </c>
       <c r="D6">
-        <v>10.0845</v>
+        <v>9.5373</v>
       </c>
       <c r="E6">
-        <v>0.8435</v>
+        <v>0.8729</v>
       </c>
       <c r="F6">
-        <v>0.1878</v>
+        <v>0.2102</v>
       </c>
       <c r="G6">
-        <v>0.1332</v>
+        <v>0.1614</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2347,22 +2347,22 @@
         <v>45</v>
       </c>
       <c r="B7">
-        <v>5.2332</v>
+        <v>5.5152</v>
       </c>
       <c r="C7">
-        <v>54.8903</v>
+        <v>59.9628</v>
       </c>
       <c r="D7">
-        <v>7.2723</v>
+        <v>7.676</v>
       </c>
       <c r="E7">
-        <v>0.9192</v>
+        <v>0.9188</v>
       </c>
       <c r="F7">
-        <v>0.127</v>
+        <v>0.1324</v>
       </c>
       <c r="G7">
-        <v>0.0969</v>
+        <v>0.1021</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2370,22 +2370,22 @@
         <v>46</v>
       </c>
       <c r="B8">
-        <v>0.6888</v>
+        <v>0.8976</v>
       </c>
       <c r="C8">
-        <v>23.4996</v>
+        <v>16.6454</v>
       </c>
       <c r="D8">
-        <v>1.4154</v>
+        <v>1.0204</v>
       </c>
       <c r="E8">
-        <v>0.0408</v>
+        <v>0.0247</v>
       </c>
       <c r="F8">
-        <v>0.0306</v>
+        <v>0.041</v>
       </c>
       <c r="G8">
-        <v>0.0184</v>
+        <v>0.0311</v>
       </c>
     </row>
   </sheetData>
@@ -2429,22 +2429,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.3275</v>
+        <v>3.5128</v>
       </c>
       <c r="C2">
-        <v>41.4773</v>
+        <v>24.9999</v>
       </c>
       <c r="D2">
-        <v>6.4403</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>0.9262</v>
+        <v>0.966</v>
       </c>
       <c r="F2">
-        <v>0.1107</v>
+        <v>0.0699</v>
       </c>
       <c r="G2">
-        <v>0.0798</v>
+        <v>0.0553</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2452,22 +2452,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.2826</v>
+        <v>4.5394</v>
       </c>
       <c r="C3">
-        <v>49.6994</v>
+        <v>50.9388</v>
       </c>
       <c r="D3">
-        <v>7.0498</v>
+        <v>7.1371</v>
       </c>
       <c r="E3">
-        <v>0.9439</v>
+        <v>0.9372</v>
       </c>
       <c r="F3">
-        <v>0.1203</v>
+        <v>0.117</v>
       </c>
       <c r="G3">
-        <v>0.0963</v>
+        <v>0.0829</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2475,22 +2475,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.6688</v>
+        <v>4.9059</v>
       </c>
       <c r="C4">
-        <v>40.2318</v>
+        <v>41.9177</v>
       </c>
       <c r="D4">
-        <v>6.3429</v>
+        <v>6.4744</v>
       </c>
       <c r="E4">
-        <v>0.9297</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="F4">
-        <v>0.1022</v>
+        <v>0.09959999999999999</v>
       </c>
       <c r="G4">
-        <v>0.081</v>
+        <v>0.07969999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2498,22 +2498,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.4268</v>
+        <v>5.7632</v>
       </c>
       <c r="C5">
-        <v>41.4148</v>
+        <v>63.5255</v>
       </c>
       <c r="D5">
-        <v>6.4354</v>
+        <v>7.9703</v>
       </c>
       <c r="E5">
-        <v>0.9572000000000001</v>
+        <v>0.9253</v>
       </c>
       <c r="F5">
-        <v>0.1097</v>
+        <v>0.1278</v>
       </c>
       <c r="G5">
-        <v>0.0796</v>
+        <v>0.104</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2521,22 +2521,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.7126</v>
+        <v>6.4461</v>
       </c>
       <c r="C6">
-        <v>104.9909</v>
+        <v>73.8369</v>
       </c>
       <c r="D6">
-        <v>10.2465</v>
+        <v>8.5928</v>
       </c>
       <c r="E6">
-        <v>0.8385</v>
+        <v>0.8968</v>
       </c>
       <c r="F6">
-        <v>0.1919</v>
+        <v>0.189</v>
       </c>
       <c r="G6">
-        <v>0.1369</v>
+        <v>0.1436</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2544,22 +2544,22 @@
         <v>45</v>
       </c>
       <c r="B7">
-        <v>5.0837</v>
+        <v>5.0335</v>
       </c>
       <c r="C7">
-        <v>55.5628</v>
+        <v>51.0438</v>
       </c>
       <c r="D7">
-        <v>7.303</v>
+        <v>7.0349</v>
       </c>
       <c r="E7">
-        <v>0.9191</v>
+        <v>0.9316</v>
       </c>
       <c r="F7">
-        <v>0.127</v>
+        <v>0.1206</v>
       </c>
       <c r="G7">
-        <v>0.09470000000000001</v>
+        <v>0.0931</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2567,22 +2567,22 @@
         <v>46</v>
       </c>
       <c r="B8">
-        <v>0.8796</v>
+        <v>1.0101</v>
       </c>
       <c r="C8">
-        <v>24.9444</v>
+        <v>16.9523</v>
       </c>
       <c r="D8">
-        <v>1.4931</v>
+        <v>1.2464</v>
       </c>
       <c r="E8">
-        <v>0.0418</v>
+        <v>0.0222</v>
       </c>
       <c r="F8">
-        <v>0.033</v>
+        <v>0.0394</v>
       </c>
       <c r="G8">
-        <v>0.022</v>
+        <v>0.0296</v>
       </c>
     </row>
   </sheetData>
@@ -2629,22 +2629,22 @@
         <v>47</v>
       </c>
       <c r="C2">
-        <v>4.9137</v>
+        <v>4.1655</v>
       </c>
       <c r="D2">
-        <v>40.6616</v>
+        <v>32.5466</v>
       </c>
       <c r="E2">
-        <v>6.3766</v>
+        <v>5.705</v>
       </c>
       <c r="F2">
-        <v>0.9213</v>
+        <v>0.9347</v>
       </c>
       <c r="G2">
-        <v>0.1018</v>
+        <v>0.09329999999999999</v>
       </c>
       <c r="H2">
-        <v>0.0838</v>
+        <v>0.0696</v>
       </c>
     </row>
   </sheetData>
